--- a/OK_musical_ensemble_scenes.xlsx
+++ b/OK_musical_ensemble_scenes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mqoutlook-my.sharepoint.com/personal/austin_megier_hdr_mq_edu_au/Documents/Macquarie Univeristy/MRes/MRes_Thesis_Data/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mqoutlook-my.sharepoint.com/personal/austin_megier_hdr_mq_edu_au/Documents/Macquarie Univeristy/MRes/MRes_Thesis_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="7373" documentId="8_{54466117-68E5-FA45-A62B-69B7A0496348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2C3C921-8FBD-4349-A749-76910DEAB0B5}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-2080" windowWidth="28800" windowHeight="16240" xr2:uid="{F188212D-6757-6E45-81FC-2E36196F77A2}"/>
+    <workbookView xWindow="-120" yWindow="500" windowWidth="28800" windowHeight="16240" firstSheet="4" activeTab="14" xr2:uid="{F188212D-6757-6E45-81FC-2E36196F77A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Location" sheetId="2" r:id="rId1"/>
@@ -2460,20 +2460,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -2792,7 +2788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4D1BAD3-08AD-E448-A827-052CB8222478}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
@@ -2863,7 +2859,6 @@
       <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
@@ -2878,7 +2873,6 @@
       <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
@@ -3138,7 +3132,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3295,10 +3289,10 @@
       <c r="B9">
         <v>66</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s">
         <v>664</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" t="s">
         <v>256</v>
       </c>
     </row>
@@ -3312,7 +3306,7 @@
       <c r="C10" t="s">
         <v>665</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" t="s">
         <v>256</v>
       </c>
     </row>
@@ -3340,7 +3334,7 @@
       <c r="C12" t="s">
         <v>667</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>65</v>
       </c>
       <c r="E12" t="s">
@@ -3363,7 +3357,7 @@
       <c r="C13" t="s">
         <v>668</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3374,10 +3368,10 @@
       <c r="B14">
         <v>70</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>666</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>256</v>
       </c>
       <c r="E14" t="s">
@@ -3400,10 +3394,10 @@
       <c r="B15">
         <v>74</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>670</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3417,7 +3411,7 @@
       <c r="C16" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>256</v>
       </c>
     </row>
@@ -3428,10 +3422,10 @@
       <c r="B17">
         <v>87</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>694</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>65</v>
       </c>
       <c r="E17" t="s">
@@ -3457,7 +3451,7 @@
       <c r="C18" t="s">
         <v>674</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>256</v>
       </c>
     </row>
@@ -3468,10 +3462,10 @@
       <c r="B19">
         <v>91</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>675</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>256</v>
       </c>
     </row>
@@ -3482,10 +3476,10 @@
       <c r="B20">
         <v>101</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>680</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3499,7 +3493,7 @@
   <dimension ref="A1:D119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
@@ -3512,7 +3506,7 @@
       <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -3675,7 +3669,7 @@
       <c r="B15">
         <v>12</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3686,7 +3680,7 @@
       <c r="B16">
         <v>13</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>4</v>
       </c>
     </row>
@@ -3705,7 +3699,7 @@
       <c r="B18">
         <v>15</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>3</v>
       </c>
     </row>
@@ -3716,7 +3710,7 @@
       <c r="B19">
         <v>16</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3738,7 +3732,7 @@
       <c r="B21">
         <v>18</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3746,10 +3740,10 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22">
         <v>19</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3757,10 +3751,10 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23">
         <v>20</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3768,10 +3762,10 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24">
         <v>21</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>2</v>
       </c>
     </row>
@@ -3779,10 +3773,10 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25">
         <v>22</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3790,10 +3784,10 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26">
         <v>23</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="6">
         <v>1</v>
       </c>
       <c r="D26">
@@ -3804,10 +3798,10 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27">
         <v>23</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <v>1</v>
       </c>
       <c r="D27">
@@ -3818,10 +3812,10 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28">
         <v>24</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3829,7 +3823,7 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29">
         <v>25</v>
       </c>
       <c r="C29">
@@ -3840,10 +3834,10 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30">
         <v>26</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="6">
         <v>4</v>
       </c>
     </row>
@@ -3851,7 +3845,7 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31">
         <v>27</v>
       </c>
       <c r="C31">
@@ -3862,7 +3856,7 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32">
         <v>28</v>
       </c>
     </row>
@@ -3870,7 +3864,7 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33">
         <v>29</v>
       </c>
       <c r="C33">
@@ -3881,7 +3875,7 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34">
         <v>30</v>
       </c>
       <c r="C34">
@@ -3892,7 +3886,7 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35">
         <v>31</v>
       </c>
       <c r="C35">
@@ -3903,7 +3897,7 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36">
         <v>32</v>
       </c>
       <c r="C36">
@@ -3914,7 +3908,7 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37">
         <v>33</v>
       </c>
       <c r="C37">
@@ -3925,7 +3919,7 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38">
         <v>34</v>
       </c>
       <c r="C38">
@@ -3939,7 +3933,7 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39">
         <v>34</v>
       </c>
       <c r="C39">
@@ -3953,7 +3947,7 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40">
         <v>34</v>
       </c>
       <c r="C40">
@@ -3964,7 +3958,7 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41">
         <v>35</v>
       </c>
       <c r="C41">
@@ -3975,7 +3969,7 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42">
         <v>36</v>
       </c>
     </row>
@@ -3983,7 +3977,7 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43">
         <v>37</v>
       </c>
     </row>
@@ -3991,7 +3985,7 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44">
         <v>38</v>
       </c>
       <c r="C44">
@@ -4002,7 +3996,7 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45">
         <v>39</v>
       </c>
       <c r="C45">
@@ -4013,7 +4007,7 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46">
         <v>40</v>
       </c>
       <c r="C46">
@@ -4024,10 +4018,10 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47">
         <v>41</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="6">
         <v>2</v>
       </c>
     </row>
@@ -4035,7 +4029,7 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48">
         <v>42</v>
       </c>
     </row>
@@ -4043,16 +4037,16 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49">
         <v>43</v>
       </c>
-      <c r="C49" s="10"/>
+      <c r="C49" s="8"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50">
         <v>44</v>
       </c>
       <c r="C50">
@@ -4063,7 +4057,7 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51">
         <v>45</v>
       </c>
       <c r="C51">
@@ -4074,7 +4068,7 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52">
         <v>46</v>
       </c>
       <c r="C52">
@@ -4085,7 +4079,7 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53">
         <v>47</v>
       </c>
       <c r="C53">
@@ -4096,7 +4090,7 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54">
         <v>47</v>
       </c>
       <c r="C54">
@@ -4107,7 +4101,7 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55">
         <v>48</v>
       </c>
     </row>
@@ -4115,7 +4109,7 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56">
         <v>49</v>
       </c>
     </row>
@@ -4123,7 +4117,7 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57">
         <v>50</v>
       </c>
     </row>
@@ -4131,7 +4125,7 @@
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58">
         <v>51</v>
       </c>
       <c r="C58">
@@ -4142,7 +4136,7 @@
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59">
         <v>52</v>
       </c>
       <c r="C59">
@@ -4153,7 +4147,7 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60">
         <v>53</v>
       </c>
     </row>
@@ -4161,7 +4155,7 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61">
         <v>54</v>
       </c>
       <c r="C61">
@@ -4172,7 +4166,7 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62">
         <v>55</v>
       </c>
     </row>
@@ -4180,7 +4174,7 @@
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63">
         <v>56</v>
       </c>
       <c r="C63">
@@ -4191,7 +4185,7 @@
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64">
         <v>57</v>
       </c>
       <c r="C64">
@@ -4202,7 +4196,7 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65">
         <v>58</v>
       </c>
       <c r="C65">
@@ -4213,7 +4207,7 @@
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66">
         <v>59</v>
       </c>
       <c r="C66">
@@ -4227,7 +4221,7 @@
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67">
         <v>59</v>
       </c>
       <c r="C67">
@@ -4241,7 +4235,7 @@
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68">
         <v>60</v>
       </c>
       <c r="C68">
@@ -4255,7 +4249,7 @@
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69">
         <v>60</v>
       </c>
       <c r="C69">
@@ -4269,7 +4263,7 @@
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70">
         <v>60</v>
       </c>
       <c r="C70">
@@ -4280,7 +4274,7 @@
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71">
         <v>60</v>
       </c>
       <c r="C71">
@@ -4291,7 +4285,7 @@
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72">
         <v>60</v>
       </c>
       <c r="C72">
@@ -4302,7 +4296,7 @@
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B73">
         <v>61</v>
       </c>
       <c r="C73">
@@ -4316,7 +4310,7 @@
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74">
         <v>61</v>
       </c>
       <c r="C74">
@@ -4330,7 +4324,7 @@
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B75">
         <v>62</v>
       </c>
     </row>
@@ -4338,7 +4332,7 @@
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76">
         <v>63</v>
       </c>
       <c r="C76">
@@ -4352,7 +4346,7 @@
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77">
         <v>63</v>
       </c>
       <c r="C77">
@@ -4366,7 +4360,7 @@
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78">
         <v>64</v>
       </c>
       <c r="C78">
@@ -4377,7 +4371,7 @@
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B79">
         <v>64</v>
       </c>
       <c r="C79">
@@ -4388,7 +4382,7 @@
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80">
         <v>65</v>
       </c>
     </row>
@@ -4396,7 +4390,7 @@
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B81">
         <v>66</v>
       </c>
       <c r="C81">
@@ -4407,7 +4401,7 @@
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B82">
         <v>67</v>
       </c>
       <c r="C82">
@@ -4421,7 +4415,7 @@
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="4">
+      <c r="B83">
         <v>67</v>
       </c>
       <c r="C83">
@@ -4435,7 +4429,7 @@
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="4">
+      <c r="B84">
         <v>68</v>
       </c>
       <c r="C84">
@@ -4446,7 +4440,7 @@
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="4">
+      <c r="B85">
         <v>69</v>
       </c>
       <c r="C85">
@@ -4457,7 +4451,7 @@
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="4">
+      <c r="B86">
         <v>70</v>
       </c>
       <c r="C86">
@@ -4468,7 +4462,7 @@
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="4">
+      <c r="B87">
         <v>71</v>
       </c>
       <c r="C87">
@@ -4479,7 +4473,7 @@
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B88">
         <v>72</v>
       </c>
     </row>
@@ -4487,7 +4481,7 @@
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="4">
+      <c r="B89">
         <v>73</v>
       </c>
     </row>
@@ -4495,7 +4489,7 @@
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="4">
+      <c r="B90">
         <v>74</v>
       </c>
     </row>
@@ -4503,7 +4497,7 @@
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="4">
+      <c r="B91">
         <v>75</v>
       </c>
     </row>
@@ -4511,7 +4505,7 @@
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="4">
+      <c r="B92">
         <v>76</v>
       </c>
     </row>
@@ -4519,7 +4513,7 @@
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="4">
+      <c r="B93">
         <v>77</v>
       </c>
     </row>
@@ -4527,7 +4521,7 @@
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="4">
+      <c r="B94">
         <v>78</v>
       </c>
     </row>
@@ -4535,7 +4529,7 @@
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="4">
+      <c r="B95">
         <v>79</v>
       </c>
     </row>
@@ -4543,7 +4537,7 @@
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="4">
+      <c r="B96">
         <v>80</v>
       </c>
       <c r="C96">
@@ -4554,7 +4548,7 @@
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="4">
+      <c r="B97">
         <v>81</v>
       </c>
       <c r="C97">
@@ -4565,7 +4559,7 @@
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="4">
+      <c r="B98">
         <v>82</v>
       </c>
       <c r="C98">
@@ -4576,7 +4570,7 @@
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="4">
+      <c r="B99">
         <v>83</v>
       </c>
       <c r="C99">
@@ -4587,7 +4581,7 @@
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="4">
+      <c r="B100">
         <v>84</v>
       </c>
       <c r="C100">
@@ -4598,7 +4592,7 @@
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B101">
         <v>85</v>
       </c>
       <c r="C101">
@@ -4612,7 +4606,7 @@
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B102">
         <v>85</v>
       </c>
       <c r="C102">
@@ -4626,7 +4620,7 @@
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" s="4">
+      <c r="B103">
         <v>86</v>
       </c>
       <c r="C103">
@@ -4637,7 +4631,7 @@
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" s="4">
+      <c r="B104">
         <v>87</v>
       </c>
       <c r="C104">
@@ -4648,7 +4642,7 @@
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" s="4">
+      <c r="B105">
         <v>88</v>
       </c>
       <c r="C105">
@@ -4659,7 +4653,7 @@
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B106">
         <v>89</v>
       </c>
       <c r="C106">
@@ -4673,7 +4667,7 @@
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" s="4">
+      <c r="B107">
         <v>89</v>
       </c>
       <c r="C107">
@@ -4687,7 +4681,7 @@
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" s="4">
+      <c r="B108">
         <v>90</v>
       </c>
       <c r="C108">
@@ -4698,7 +4692,7 @@
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" s="4">
+      <c r="B109">
         <v>91</v>
       </c>
       <c r="C109">
@@ -4709,7 +4703,7 @@
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" s="4">
+      <c r="B110">
         <v>92</v>
       </c>
     </row>
@@ -4717,7 +4711,7 @@
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" s="4">
+      <c r="B111">
         <v>93</v>
       </c>
     </row>
@@ -4725,7 +4719,7 @@
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" s="4">
+      <c r="B112">
         <v>94</v>
       </c>
       <c r="C112">
@@ -4736,7 +4730,7 @@
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" s="4">
+      <c r="B113">
         <v>95</v>
       </c>
       <c r="C113">
@@ -4747,7 +4741,7 @@
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" s="4">
+      <c r="B114">
         <v>96</v>
       </c>
       <c r="C114">
@@ -4758,7 +4752,7 @@
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" s="4">
+      <c r="B115">
         <v>97</v>
       </c>
       <c r="C115">
@@ -4769,7 +4763,7 @@
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" s="4">
+      <c r="B116">
         <v>98</v>
       </c>
       <c r="C116">
@@ -4780,7 +4774,7 @@
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" s="4">
+      <c r="B117">
         <v>99</v>
       </c>
       <c r="C117">
@@ -4791,7 +4785,7 @@
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" s="4">
+      <c r="B118">
         <v>100</v>
       </c>
       <c r="C118">
@@ -4802,7 +4796,7 @@
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" s="4">
+      <c r="B119">
         <v>101</v>
       </c>
       <c r="C119" s="1">
@@ -4820,7 +4814,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5043,13 +5037,13 @@
       <c r="D9" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="8" t="s">
+      <c r="F9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H9">
@@ -5069,13 +5063,13 @@
       <c r="D10" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="8" t="s">
+      <c r="F10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H10">
@@ -5095,10 +5089,10 @@
       <c r="D11" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="8" t="s">
+      <c r="F11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H11">
@@ -5121,10 +5115,10 @@
       <c r="D12" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="8" t="s">
+      <c r="F12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H12">
@@ -5147,10 +5141,10 @@
       <c r="D13" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="8" t="s">
+      <c r="F13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H13">
@@ -5170,10 +5164,10 @@
       <c r="D14" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="8" t="s">
+      <c r="F14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H14">
@@ -5196,10 +5190,10 @@
       <c r="E15" t="s">
         <v>254</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="8" t="s">
+      <c r="F15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H15">
@@ -5219,13 +5213,13 @@
       <c r="D16" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="8" t="s">
+      <c r="F16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H16">
@@ -5245,13 +5239,13 @@
       <c r="D17" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="8" t="s">
+      <c r="F17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H17">
@@ -5274,10 +5268,10 @@
       <c r="E18" t="s">
         <v>257</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" s="8" t="s">
+      <c r="F18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H18">
@@ -5294,10 +5288,10 @@
       <c r="D19" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="8" t="s">
+      <c r="F19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H19">
@@ -5314,10 +5308,10 @@
       <c r="D20" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" s="8" t="s">
+      <c r="F20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H20">
@@ -5334,10 +5328,10 @@
       <c r="D21" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="8" t="s">
+      <c r="F21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H21">
@@ -5354,10 +5348,10 @@
       <c r="D22" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22" s="8" t="s">
+      <c r="F22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H22">
@@ -5377,10 +5371,10 @@
       <c r="D23" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23" s="8"/>
+      <c r="F23" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="7"/>
       <c r="H23">
         <v>5</v>
       </c>
@@ -5401,10 +5395,10 @@
       <c r="E24" t="s">
         <v>262</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24" s="8" t="s">
+      <c r="F24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H24">
@@ -5427,10 +5421,10 @@
       <c r="E25" t="s">
         <v>265</v>
       </c>
-      <c r="F25" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25" s="8" t="s">
+      <c r="F25" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H25">
@@ -5450,10 +5444,10 @@
       <c r="D26" t="s">
         <v>60</v>
       </c>
-      <c r="F26" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" s="8" t="s">
+      <c r="F26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H26">
@@ -5476,10 +5470,10 @@
       <c r="E27" t="s">
         <v>266</v>
       </c>
-      <c r="F27" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="8" t="s">
+      <c r="F27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H27">
@@ -5502,10 +5496,10 @@
       <c r="E28" t="s">
         <v>254</v>
       </c>
-      <c r="F28" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G28" s="8" t="s">
+      <c r="F28" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H28">
@@ -5528,10 +5522,10 @@
       <c r="E29" t="s">
         <v>268</v>
       </c>
-      <c r="F29" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G29" s="8" t="s">
+      <c r="F29" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H29">
@@ -5554,10 +5548,10 @@
       <c r="E30" t="s">
         <v>269</v>
       </c>
-      <c r="F30" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G30" s="8" t="s">
+      <c r="F30" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H30">
@@ -5580,10 +5574,10 @@
       <c r="E31" t="s">
         <v>270</v>
       </c>
-      <c r="F31" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G31" s="8" t="s">
+      <c r="F31" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H31">
@@ -5600,10 +5594,10 @@
       <c r="D32" t="s">
         <v>60</v>
       </c>
-      <c r="F32" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G32" s="8" t="s">
+      <c r="F32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H32">
@@ -5626,10 +5620,10 @@
       <c r="E33" t="s">
         <v>273</v>
       </c>
-      <c r="F33" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G33" s="8" t="s">
+      <c r="F33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H33">
@@ -5652,10 +5646,10 @@
       <c r="E34" t="s">
         <v>274</v>
       </c>
-      <c r="F34" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G34" s="8" t="s">
+      <c r="F34" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H34">
@@ -5678,10 +5672,10 @@
       <c r="E35" t="s">
         <v>275</v>
       </c>
-      <c r="F35" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G35" s="8" t="s">
+      <c r="F35" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H35">
@@ -5701,10 +5695,10 @@
       <c r="D36" t="s">
         <v>60</v>
       </c>
-      <c r="F36" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G36" s="8" t="s">
+      <c r="F36" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H36">
@@ -5727,10 +5721,10 @@
       <c r="E37" t="s">
         <v>265</v>
       </c>
-      <c r="F37" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G37" s="8" t="s">
+      <c r="F37" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H37">
@@ -5753,10 +5747,10 @@
       <c r="E38" t="s">
         <v>265</v>
       </c>
-      <c r="F38" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G38" s="8" t="s">
+      <c r="F38" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H38">
@@ -5779,10 +5773,10 @@
       <c r="E39" t="s">
         <v>276</v>
       </c>
-      <c r="F39" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G39" s="8" t="s">
+      <c r="F39" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H39">
@@ -5805,10 +5799,10 @@
       <c r="E40" t="s">
         <v>273</v>
       </c>
-      <c r="F40" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G40" s="8" t="s">
+      <c r="F40" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H40">
@@ -5831,10 +5825,10 @@
       <c r="E41" t="s">
         <v>265</v>
       </c>
-      <c r="F41" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G41" s="8" t="s">
+      <c r="F41" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H41">
@@ -5857,10 +5851,10 @@
       <c r="E42" t="s">
         <v>265</v>
       </c>
-      <c r="F42" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G42" s="8" t="s">
+      <c r="F42" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H42">
@@ -5883,10 +5877,10 @@
       <c r="E43" t="s">
         <v>277</v>
       </c>
-      <c r="F43" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G43" s="8" t="s">
+      <c r="F43" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H43">
@@ -5909,10 +5903,10 @@
       <c r="E44" t="s">
         <v>275</v>
       </c>
-      <c r="F44" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G44" s="8" t="s">
+      <c r="F44" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H44">
@@ -5935,10 +5929,10 @@
       <c r="E45" t="s">
         <v>278</v>
       </c>
-      <c r="F45" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G45" s="8" t="s">
+      <c r="F45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H45">
@@ -7728,13 +7722,13 @@
       <c r="D118" t="s">
         <v>60</v>
       </c>
-      <c r="E118" s="4" t="s">
+      <c r="E118" t="s">
         <v>641</v>
       </c>
-      <c r="F118" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G118" s="8" t="s">
+      <c r="F118" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G118" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H118">
@@ -7751,10 +7745,10 @@
       <c r="D119" t="s">
         <v>60</v>
       </c>
-      <c r="F119" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G119" s="8" t="s">
+      <c r="F119" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G119" s="7" t="s">
         <v>57</v>
       </c>
     </row>
@@ -7774,10 +7768,10 @@
       <c r="E120" t="s">
         <v>309</v>
       </c>
-      <c r="F120" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G120" s="8" t="s">
+      <c r="F120" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G120" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H120">
@@ -7800,10 +7794,10 @@
       <c r="E121" t="s">
         <v>310</v>
       </c>
-      <c r="F121" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G121" s="8" t="s">
+      <c r="F121" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G121" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H121">
@@ -7826,10 +7820,10 @@
       <c r="E122" t="s">
         <v>282</v>
       </c>
-      <c r="F122" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G122" s="8" t="s">
+      <c r="F122" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G122" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H122">
@@ -7852,10 +7846,10 @@
       <c r="E123" t="s">
         <v>311</v>
       </c>
-      <c r="F123" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G123" s="8" t="s">
+      <c r="F123" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G123" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H123">
@@ -7878,10 +7872,10 @@
       <c r="E124" t="s">
         <v>275</v>
       </c>
-      <c r="F124" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G124" s="8" t="s">
+      <c r="F124" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G124" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H124">
@@ -7904,10 +7898,10 @@
       <c r="E125" t="s">
         <v>285</v>
       </c>
-      <c r="F125" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G125" s="8" t="s">
+      <c r="F125" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G125" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H125">
@@ -7930,10 +7924,10 @@
       <c r="E126" t="s">
         <v>282</v>
       </c>
-      <c r="F126" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G126" s="8" t="s">
+      <c r="F126" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G126" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H126">
@@ -7953,10 +7947,10 @@
       <c r="D127" t="s">
         <v>56</v>
       </c>
-      <c r="F127" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G127" s="8" t="s">
+      <c r="F127" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G127" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H127">
@@ -7976,10 +7970,10 @@
       <c r="D128" t="s">
         <v>60</v>
       </c>
-      <c r="F128" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G128" s="8" t="s">
+      <c r="F128" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G128" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H128">
@@ -7999,10 +7993,10 @@
       <c r="E129" t="s">
         <v>312</v>
       </c>
-      <c r="F129" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G129" s="8" t="s">
+      <c r="F129" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G129" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H129">
@@ -8025,10 +8019,10 @@
       <c r="E130" t="s">
         <v>313</v>
       </c>
-      <c r="F130" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G130" s="8" t="s">
+      <c r="F130" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G130" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H130">
@@ -8054,10 +8048,10 @@
       <c r="E131" t="s">
         <v>643</v>
       </c>
-      <c r="F131" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G131" s="8" t="s">
+      <c r="F131" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G131" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H131">
@@ -8083,10 +8077,10 @@
       <c r="E132" t="s">
         <v>644</v>
       </c>
-      <c r="F132" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G132" s="8" t="s">
+      <c r="F132" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G132" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H132">
@@ -8109,10 +8103,10 @@
       <c r="D133" t="s">
         <v>60</v>
       </c>
-      <c r="F133" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G133" s="8" t="s">
+      <c r="F133" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G133" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H133">
@@ -8138,10 +8132,10 @@
       <c r="E134" t="s">
         <v>645</v>
       </c>
-      <c r="F134" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G134" s="8" t="s">
+      <c r="F134" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G134" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H134">
@@ -8167,10 +8161,10 @@
       <c r="E135" t="s">
         <v>646</v>
       </c>
-      <c r="F135" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G135" s="8" t="s">
+      <c r="F135" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G135" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H135">
@@ -8196,10 +8190,10 @@
       <c r="E136" t="s">
         <v>647</v>
       </c>
-      <c r="F136" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G136" s="8" t="s">
+      <c r="F136" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G136" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H136">
@@ -8225,10 +8219,10 @@
       <c r="E137" t="s">
         <v>648</v>
       </c>
-      <c r="F137" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G137" s="8" t="s">
+      <c r="F137" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G137" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H137">
@@ -8254,10 +8248,10 @@
       <c r="E138" t="s">
         <v>314</v>
       </c>
-      <c r="F138" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G138" s="8" t="s">
+      <c r="F138" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G138" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H138">
@@ -8283,10 +8277,10 @@
       <c r="E139" t="s">
         <v>649</v>
       </c>
-      <c r="F139" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G139" s="8" t="s">
+      <c r="F139" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G139" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H139">
@@ -8312,10 +8306,10 @@
       <c r="E140" t="s">
         <v>650</v>
       </c>
-      <c r="F140" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G140" s="8" t="s">
+      <c r="F140" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G140" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H140">
@@ -8341,10 +8335,10 @@
       <c r="E141" t="s">
         <v>315</v>
       </c>
-      <c r="F141" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G141" s="8" t="s">
+      <c r="F141" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G141" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H141">
@@ -8370,10 +8364,10 @@
       <c r="E142" t="s">
         <v>651</v>
       </c>
-      <c r="F142" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G142" s="8" t="s">
+      <c r="F142" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G142" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H142">
@@ -8399,10 +8393,10 @@
       <c r="E143" t="s">
         <v>646</v>
       </c>
-      <c r="F143" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G143" s="8" t="s">
+      <c r="F143" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G143" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H143">
@@ -8428,10 +8422,10 @@
       <c r="E144" t="s">
         <v>647</v>
       </c>
-      <c r="F144" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G144" s="8" t="s">
+      <c r="F144" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G144" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H144">
@@ -8457,10 +8451,10 @@
       <c r="E145" t="s">
         <v>652</v>
       </c>
-      <c r="F145" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G145" s="8" t="s">
+      <c r="F145" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G145" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H145">
@@ -8486,10 +8480,10 @@
       <c r="E146" t="s">
         <v>653</v>
       </c>
-      <c r="F146" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G146" s="8" t="s">
+      <c r="F146" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G146" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H146">
@@ -8515,10 +8509,10 @@
       <c r="E147" t="s">
         <v>654</v>
       </c>
-      <c r="F147" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G147" s="8" t="s">
+      <c r="F147" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G147" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H147">
@@ -8544,10 +8538,10 @@
       <c r="E148" t="s">
         <v>654</v>
       </c>
-      <c r="F148" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G148" s="8" t="s">
+      <c r="F148" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G148" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H148">
@@ -8573,10 +8567,10 @@
       <c r="E149" t="s">
         <v>655</v>
       </c>
-      <c r="F149" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G149" s="8" t="s">
+      <c r="F149" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G149" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H149">
@@ -8602,10 +8596,10 @@
       <c r="E150" t="s">
         <v>656</v>
       </c>
-      <c r="F150" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G150" s="8" t="s">
+      <c r="F150" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G150" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H150">
@@ -8631,10 +8625,10 @@
       <c r="E151" t="s">
         <v>657</v>
       </c>
-      <c r="F151" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G151" s="8" t="s">
+      <c r="F151" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G151" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H151">
@@ -8660,10 +8654,10 @@
       <c r="E152" t="s">
         <v>658</v>
       </c>
-      <c r="F152" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G152" s="8" t="s">
+      <c r="F152" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G152" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H152">
@@ -8689,10 +8683,10 @@
       <c r="E153" t="s">
         <v>659</v>
       </c>
-      <c r="F153" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G153" s="8" t="s">
+      <c r="F153" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G153" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H153">
@@ -8718,10 +8712,10 @@
       <c r="E154" t="s">
         <v>316</v>
       </c>
-      <c r="F154" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G154" s="8" t="s">
+      <c r="F154" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G154" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H154">
@@ -8747,10 +8741,10 @@
       <c r="E155" t="s">
         <v>317</v>
       </c>
-      <c r="F155" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G155" s="8" t="s">
+      <c r="F155" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G155" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H155">
@@ -8776,10 +8770,10 @@
       <c r="E156" t="s">
         <v>660</v>
       </c>
-      <c r="F156" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G156" s="8" t="s">
+      <c r="F156" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G156" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H156">
@@ -8805,10 +8799,10 @@
       <c r="E157" t="s">
         <v>661</v>
       </c>
-      <c r="F157" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G157" s="8" t="s">
+      <c r="F157" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G157" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H157">
@@ -8834,10 +8828,10 @@
       <c r="E158" t="s">
         <v>662</v>
       </c>
-      <c r="F158" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G158" s="8" t="s">
+      <c r="F158" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G158" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H158">
@@ -8863,10 +8857,10 @@
       <c r="E159" t="s">
         <v>645</v>
       </c>
-      <c r="F159" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G159" s="8" t="s">
+      <c r="F159" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G159" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H159">
@@ -8892,10 +8886,10 @@
       <c r="E160" t="s">
         <v>320</v>
       </c>
-      <c r="F160" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G160" s="8" t="s">
+      <c r="F160" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G160" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H160">
@@ -8921,10 +8915,10 @@
       <c r="E161" t="s">
         <v>319</v>
       </c>
-      <c r="F161" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G161" s="8" t="s">
+      <c r="F161" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G161" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H161">
@@ -8950,10 +8944,10 @@
       <c r="E162" t="s">
         <v>318</v>
       </c>
-      <c r="F162" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G162" s="8" t="s">
+      <c r="F162" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G162" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H162">
@@ -8979,10 +8973,10 @@
       <c r="E163" t="s">
         <v>322</v>
       </c>
-      <c r="F163" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G163" s="8" t="s">
+      <c r="F163" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G163" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H163">
@@ -9008,10 +9002,10 @@
       <c r="E164" t="s">
         <v>321</v>
       </c>
-      <c r="F164" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G164" s="8" t="s">
+      <c r="F164" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G164" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H164">
@@ -9037,10 +9031,10 @@
       <c r="E165" t="s">
         <v>53</v>
       </c>
-      <c r="F165" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G165" s="8" t="s">
+      <c r="F165" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G165" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H165">
@@ -9066,10 +9060,10 @@
       <c r="E166" t="s">
         <v>323</v>
       </c>
-      <c r="F166" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G166" s="8" t="s">
+      <c r="F166" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G166" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H166">
@@ -9092,10 +9086,10 @@
       <c r="D167" t="s">
         <v>60</v>
       </c>
-      <c r="F167" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G167" s="8" t="s">
+      <c r="F167" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G167" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H167">
@@ -9118,10 +9112,10 @@
       <c r="D168" t="s">
         <v>60</v>
       </c>
-      <c r="F168" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G168" s="8" t="s">
+      <c r="F168" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G168" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H168">
@@ -9147,10 +9141,10 @@
       <c r="E169" t="s">
         <v>692</v>
       </c>
-      <c r="F169" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G169" s="8" t="s">
+      <c r="F169" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G169" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H169">
@@ -9176,10 +9170,10 @@
       <c r="E170" t="s">
         <v>325</v>
       </c>
-      <c r="F170" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G170" s="8" t="s">
+      <c r="F170" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G170" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H170">
@@ -9202,10 +9196,10 @@
       <c r="D171" t="s">
         <v>56</v>
       </c>
-      <c r="F171" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G171" s="8" t="s">
+      <c r="F171" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G171" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H171">
@@ -9228,10 +9222,10 @@
       <c r="D172" t="s">
         <v>56</v>
       </c>
-      <c r="F172" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G172" s="8" t="s">
+      <c r="F172" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G172" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H172">
@@ -9254,10 +9248,10 @@
       <c r="D173" t="s">
         <v>56</v>
       </c>
-      <c r="F173" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G173" s="8" t="s">
+      <c r="F173" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G173" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H173">
@@ -9280,10 +9274,10 @@
       <c r="D174" t="s">
         <v>56</v>
       </c>
-      <c r="F174" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G174" s="8" t="s">
+      <c r="F174" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G174" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H174">
@@ -9309,10 +9303,10 @@
       <c r="E175" t="s">
         <v>282</v>
       </c>
-      <c r="F175" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G175" s="8" t="s">
+      <c r="F175" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G175" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H175">
@@ -9335,10 +9329,10 @@
       <c r="E176" t="s">
         <v>285</v>
       </c>
-      <c r="F176" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G176" s="8" t="s">
+      <c r="F176" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G176" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H176">
@@ -9358,10 +9352,10 @@
       <c r="D177" t="s">
         <v>60</v>
       </c>
-      <c r="F177" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G177" s="8" t="s">
+      <c r="F177" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G177" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H177">
@@ -9384,10 +9378,10 @@
       <c r="D178" t="s">
         <v>60</v>
       </c>
-      <c r="F178" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G178" s="8" t="s">
+      <c r="F178" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G178" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H178">
@@ -9410,10 +9404,10 @@
       <c r="D179" t="s">
         <v>56</v>
       </c>
-      <c r="F179" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G179" s="8" t="s">
+      <c r="F179" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G179" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H179">
@@ -9436,10 +9430,10 @@
       <c r="D180" t="s">
         <v>59</v>
       </c>
-      <c r="F180" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G180" s="8" t="s">
+      <c r="F180" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G180" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H180">
@@ -9465,10 +9459,10 @@
       <c r="E181" t="s">
         <v>310</v>
       </c>
-      <c r="F181" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G181" s="8" t="s">
+      <c r="F181" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G181" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H181">
@@ -9491,10 +9485,10 @@
       <c r="E182" t="s">
         <v>326</v>
       </c>
-      <c r="F182" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G182" s="8" t="s">
+      <c r="F182" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G182" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H182">
@@ -9514,11 +9508,11 @@
       <c r="D183" t="s">
         <v>56</v>
       </c>
-      <c r="E183" s="10"/>
-      <c r="F183" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G183" s="8" t="s">
+      <c r="E183" s="8"/>
+      <c r="F183" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G183" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H183">
@@ -9541,10 +9535,10 @@
       <c r="E184" t="s">
         <v>282</v>
       </c>
-      <c r="F184" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G184" s="8" t="s">
+      <c r="F184" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G184" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H184">
@@ -9567,10 +9561,10 @@
       <c r="E185" t="s">
         <v>270</v>
       </c>
-      <c r="F185" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G185" s="8" t="s">
+      <c r="F185" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G185" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H185">
@@ -9593,10 +9587,10 @@
       <c r="E186" t="s">
         <v>328</v>
       </c>
-      <c r="F186" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G186" s="8" t="s">
+      <c r="F186" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G186" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H186">
@@ -9613,10 +9607,10 @@
       <c r="D187" t="s">
         <v>60</v>
       </c>
-      <c r="F187" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G187" s="8" t="s">
+      <c r="F187" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G187" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H187">
@@ -9639,10 +9633,10 @@
       <c r="E188" t="s">
         <v>330</v>
       </c>
-      <c r="F188" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G188" s="8" t="s">
+      <c r="F188" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G188" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H188">
@@ -9665,10 +9659,10 @@
       <c r="E189" t="s">
         <v>331</v>
       </c>
-      <c r="F189" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G189" s="8" t="s">
+      <c r="F189" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G189" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H189">
@@ -9691,10 +9685,10 @@
       <c r="E190" t="s">
         <v>332</v>
       </c>
-      <c r="F190" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G190" s="8" t="s">
+      <c r="F190" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G190" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H190">
@@ -9717,10 +9711,10 @@
       <c r="E191" t="s">
         <v>333</v>
       </c>
-      <c r="F191" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G191" s="8" t="s">
+      <c r="F191" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G191" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H191">
@@ -9743,10 +9737,10 @@
       <c r="E192" t="s">
         <v>285</v>
       </c>
-      <c r="F192" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G192" s="8" t="s">
+      <c r="F192" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G192" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H192">
@@ -9769,10 +9763,10 @@
       <c r="E193" t="s">
         <v>334</v>
       </c>
-      <c r="F193" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G193" s="8" t="s">
+      <c r="F193" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G193" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H193">
@@ -9789,10 +9783,10 @@
       <c r="D194" t="s">
         <v>59</v>
       </c>
-      <c r="F194" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G194" s="8" t="s">
+      <c r="F194" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G194" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H194">
@@ -9812,10 +9806,10 @@
       <c r="E195" t="s">
         <v>336</v>
       </c>
-      <c r="F195" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G195" s="8" t="s">
+      <c r="F195" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G195" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H195">
@@ -9841,10 +9835,10 @@
       <c r="E196" t="s">
         <v>335</v>
       </c>
-      <c r="F196" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G196" s="8" t="s">
+      <c r="F196" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G196" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H196">
@@ -9870,10 +9864,10 @@
       <c r="E197" t="s">
         <v>337</v>
       </c>
-      <c r="F197" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G197" s="8" t="s">
+      <c r="F197" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G197" s="7" t="s">
         <v>57</v>
       </c>
       <c r="H197">
@@ -9896,10 +9890,10 @@
       <c r="E198" t="s">
         <v>339</v>
       </c>
-      <c r="F198" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G198" s="8" t="s">
+      <c r="F198" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G198" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H198">
@@ -11398,7 +11392,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11498,8 +11492,8 @@
       <c r="H3">
         <v>3</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4">
@@ -11526,8 +11520,8 @@
       <c r="H4">
         <v>2</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5">
@@ -11574,7 +11568,7 @@
       <c r="G6">
         <v>4</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="7" t="s">
         <v>53</v>
       </c>
       <c r="J6" t="s">
@@ -11615,7 +11609,7 @@
       <c r="G7">
         <v>5</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="7" t="s">
         <v>53</v>
       </c>
       <c r="J7" t="s">
@@ -12879,26 +12873,26 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="6">
         <v>26</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G45" s="7">
+      <c r="D45" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G45" s="6">
         <v>8</v>
       </c>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7" t="s">
+      <c r="H45" s="6"/>
+      <c r="I45" s="6" t="s">
         <v>361</v>
       </c>
     </row>
@@ -14962,7 +14956,7 @@
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" s="4">
+      <c r="B114">
         <v>73</v>
       </c>
       <c r="C114" t="s">
@@ -14988,7 +14982,7 @@
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" s="4">
+      <c r="B115">
         <v>74</v>
       </c>
       <c r="C115" t="s">
@@ -15029,7 +15023,7 @@
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" s="4">
+      <c r="B116">
         <v>74</v>
       </c>
       <c r="C116" t="s">
@@ -15067,7 +15061,7 @@
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" s="4">
+      <c r="B117">
         <v>76</v>
       </c>
       <c r="C117" t="s">
@@ -15090,7 +15084,7 @@
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" s="4">
+      <c r="B118">
         <v>76</v>
       </c>
       <c r="C118" t="s">
@@ -15113,7 +15107,7 @@
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" s="4">
+      <c r="B119">
         <v>76</v>
       </c>
       <c r="C119" t="s">
@@ -15136,7 +15130,7 @@
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" s="4">
+      <c r="B120">
         <v>77</v>
       </c>
       <c r="C120" t="s">
@@ -15162,7 +15156,7 @@
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" s="4">
+      <c r="B121">
         <v>79</v>
       </c>
       <c r="C121" t="s">
@@ -15203,7 +15197,7 @@
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" s="4">
+      <c r="B122">
         <v>80</v>
       </c>
       <c r="C122" t="s">
@@ -15241,7 +15235,7 @@
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" s="4">
+      <c r="B123">
         <v>80</v>
       </c>
       <c r="C123" t="s">
@@ -15264,7 +15258,7 @@
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" s="4">
+      <c r="B124">
         <v>80</v>
       </c>
       <c r="C124" t="s">
@@ -15287,7 +15281,7 @@
       <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125" s="4">
+      <c r="B125">
         <v>81</v>
       </c>
       <c r="C125" t="s">
@@ -15310,7 +15304,7 @@
       <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" s="4">
+      <c r="B126">
         <v>83</v>
       </c>
       <c r="C126" t="s">
@@ -15336,7 +15330,7 @@
       <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127" s="4">
+      <c r="B127">
         <v>85</v>
       </c>
       <c r="C127" t="s">
@@ -15362,7 +15356,7 @@
       <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128" s="4">
+      <c r="B128">
         <v>85</v>
       </c>
       <c r="C128" t="s">
@@ -15391,7 +15385,7 @@
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129" s="4">
+      <c r="B129">
         <v>85</v>
       </c>
       <c r="C129" t="s">
@@ -15417,7 +15411,7 @@
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130" s="4">
+      <c r="B130">
         <v>86</v>
       </c>
       <c r="C130" t="s">
@@ -15440,7 +15434,7 @@
       <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131" s="4">
+      <c r="B131">
         <v>86</v>
       </c>
       <c r="C131" t="s">
@@ -15466,7 +15460,7 @@
       <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" s="4">
+      <c r="B132">
         <v>86</v>
       </c>
       <c r="C132" t="s">
@@ -15489,7 +15483,7 @@
       <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133" s="4">
+      <c r="B133">
         <v>90</v>
       </c>
       <c r="C133" t="s">
@@ -15512,7 +15506,7 @@
       <c r="A134">
         <v>133</v>
       </c>
-      <c r="B134" s="4">
+      <c r="B134">
         <v>92</v>
       </c>
       <c r="C134" t="s">
@@ -15538,7 +15532,7 @@
       <c r="A135">
         <v>134</v>
       </c>
-      <c r="B135" s="4">
+      <c r="B135">
         <v>101</v>
       </c>
       <c r="C135" t="s">
@@ -15576,7 +15570,7 @@
       <c r="A136">
         <v>135</v>
       </c>
-      <c r="B136" s="4">
+      <c r="B136">
         <v>63</v>
       </c>
       <c r="C136" t="s">
@@ -15602,7 +15596,7 @@
       <c r="A137">
         <v>136</v>
       </c>
-      <c r="B137" s="4">
+      <c r="B137">
         <v>63</v>
       </c>
       <c r="C137" t="s">
@@ -15628,7 +15622,7 @@
       <c r="A138">
         <v>137</v>
       </c>
-      <c r="B138" s="4">
+      <c r="B138">
         <v>100</v>
       </c>
       <c r="C138" t="s">
@@ -15654,7 +15648,7 @@
       <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139" s="4">
+      <c r="B139">
         <v>49</v>
       </c>
       <c r="C139" t="s">
@@ -15674,7 +15668,7 @@
       <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140" s="4">
+      <c r="B140">
         <v>49</v>
       </c>
       <c r="C140" t="s">
@@ -15691,7 +15685,7 @@
       <c r="A141">
         <v>140</v>
       </c>
-      <c r="B141" s="4">
+      <c r="B141">
         <v>49</v>
       </c>
       <c r="C141" t="s">
@@ -15928,21 +15922,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59AD92AC-CE9C-1748-B25F-61E3C8ED781E}">
   <dimension ref="A1:F281"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" t="s">
         <v>765</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -16557,7 +16551,7 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="4">
+      <c r="A34">
         <v>17</v>
       </c>
       <c r="B34" t="s">
@@ -19639,7 +19633,7 @@
       </c>
     </row>
     <row r="201" spans="1:6">
-      <c r="A201" s="4">
+      <c r="A201">
         <v>100</v>
       </c>
       <c r="B201" t="s">
@@ -19659,7 +19653,7 @@
       </c>
     </row>
     <row r="202" spans="1:6">
-      <c r="A202" s="4">
+      <c r="A202">
         <v>101</v>
       </c>
       <c r="B202" t="s">
@@ -19679,7 +19673,7 @@
       </c>
     </row>
     <row r="203" spans="1:6">
-      <c r="A203" s="4">
+      <c r="A203">
         <v>101</v>
       </c>
       <c r="B203" t="s">
@@ -19699,7 +19693,7 @@
       </c>
     </row>
     <row r="204" spans="1:6">
-      <c r="A204" s="4">
+      <c r="A204">
         <v>102</v>
       </c>
       <c r="B204" t="s">
@@ -19719,7 +19713,7 @@
       </c>
     </row>
     <row r="205" spans="1:6">
-      <c r="A205" s="4">
+      <c r="A205">
         <v>102</v>
       </c>
       <c r="B205" t="s">
@@ -19739,7 +19733,7 @@
       </c>
     </row>
     <row r="206" spans="1:6">
-      <c r="A206" s="4">
+      <c r="A206">
         <v>103</v>
       </c>
       <c r="B206" t="s">
@@ -19759,7 +19753,7 @@
       </c>
     </row>
     <row r="207" spans="1:6">
-      <c r="A207" s="4">
+      <c r="A207">
         <v>103</v>
       </c>
       <c r="B207" t="s">
@@ -19779,7 +19773,7 @@
       </c>
     </row>
     <row r="208" spans="1:6">
-      <c r="A208" s="4">
+      <c r="A208">
         <v>104</v>
       </c>
       <c r="B208" t="s">
@@ -19799,7 +19793,7 @@
       </c>
     </row>
     <row r="209" spans="1:6">
-      <c r="A209" s="4">
+      <c r="A209">
         <v>104</v>
       </c>
       <c r="B209" t="s">
@@ -19819,7 +19813,7 @@
       </c>
     </row>
     <row r="210" spans="1:6">
-      <c r="A210" s="4">
+      <c r="A210">
         <v>105</v>
       </c>
       <c r="B210" t="s">
@@ -19839,7 +19833,7 @@
       </c>
     </row>
     <row r="211" spans="1:6">
-      <c r="A211" s="4">
+      <c r="A211">
         <v>105</v>
       </c>
       <c r="B211" t="s">
@@ -19859,7 +19853,7 @@
       </c>
     </row>
     <row r="212" spans="1:6">
-      <c r="A212" s="4">
+      <c r="A212">
         <v>106</v>
       </c>
       <c r="B212" t="s">
@@ -19879,7 +19873,7 @@
       </c>
     </row>
     <row r="213" spans="1:6">
-      <c r="A213" s="4">
+      <c r="A213">
         <v>106</v>
       </c>
       <c r="B213" t="s">
@@ -19899,7 +19893,7 @@
       </c>
     </row>
     <row r="214" spans="1:6">
-      <c r="A214" s="4">
+      <c r="A214">
         <v>107</v>
       </c>
       <c r="B214" t="s">
@@ -19919,7 +19913,7 @@
       </c>
     </row>
     <row r="215" spans="1:6">
-      <c r="A215" s="4">
+      <c r="A215">
         <v>107</v>
       </c>
       <c r="B215" t="s">
@@ -19939,7 +19933,7 @@
       </c>
     </row>
     <row r="216" spans="1:6">
-      <c r="A216" s="4">
+      <c r="A216">
         <v>108</v>
       </c>
       <c r="B216" t="s">
@@ -19959,7 +19953,7 @@
       </c>
     </row>
     <row r="217" spans="1:6">
-      <c r="A217" s="4">
+      <c r="A217">
         <v>108</v>
       </c>
       <c r="B217" t="s">
@@ -19979,7 +19973,7 @@
       </c>
     </row>
     <row r="218" spans="1:6">
-      <c r="A218" s="4">
+      <c r="A218">
         <v>109</v>
       </c>
       <c r="B218" t="s">
@@ -19999,7 +19993,7 @@
       </c>
     </row>
     <row r="219" spans="1:6">
-      <c r="A219" s="4">
+      <c r="A219">
         <v>109</v>
       </c>
       <c r="B219" t="s">
@@ -20019,7 +20013,7 @@
       </c>
     </row>
     <row r="220" spans="1:6">
-      <c r="A220" s="4">
+      <c r="A220">
         <v>110</v>
       </c>
       <c r="B220" t="s">
@@ -20036,7 +20030,7 @@
       </c>
     </row>
     <row r="221" spans="1:6">
-      <c r="A221" s="4">
+      <c r="A221">
         <v>110</v>
       </c>
       <c r="B221" t="s">
@@ -20056,7 +20050,7 @@
       </c>
     </row>
     <row r="222" spans="1:6">
-      <c r="A222" s="4">
+      <c r="A222">
         <v>111</v>
       </c>
       <c r="B222" t="s">
@@ -20070,7 +20064,7 @@
       </c>
     </row>
     <row r="223" spans="1:6">
-      <c r="A223" s="4">
+      <c r="A223">
         <v>111</v>
       </c>
       <c r="B223" t="s">
@@ -20081,7 +20075,7 @@
       </c>
     </row>
     <row r="224" spans="1:6">
-      <c r="A224" s="4">
+      <c r="A224">
         <v>112</v>
       </c>
       <c r="B224" t="s">
@@ -20092,7 +20086,7 @@
       </c>
     </row>
     <row r="225" spans="1:6">
-      <c r="A225" s="4">
+      <c r="A225">
         <v>112</v>
       </c>
       <c r="B225" t="s">
@@ -20103,7 +20097,7 @@
       </c>
     </row>
     <row r="226" spans="1:6">
-      <c r="A226" s="4">
+      <c r="A226">
         <v>113</v>
       </c>
       <c r="B226" t="s">
@@ -20123,7 +20117,7 @@
       </c>
     </row>
     <row r="227" spans="1:6">
-      <c r="A227" s="4">
+      <c r="A227">
         <v>113</v>
       </c>
       <c r="B227" t="s">
@@ -20143,7 +20137,7 @@
       </c>
     </row>
     <row r="228" spans="1:6">
-      <c r="A228" s="4">
+      <c r="A228">
         <v>114</v>
       </c>
       <c r="B228" t="s">
@@ -20163,7 +20157,7 @@
       </c>
     </row>
     <row r="229" spans="1:6">
-      <c r="A229" s="4">
+      <c r="A229">
         <v>114</v>
       </c>
       <c r="B229" t="s">
@@ -20183,7 +20177,7 @@
       </c>
     </row>
     <row r="230" spans="1:6">
-      <c r="A230" s="4">
+      <c r="A230">
         <v>115</v>
       </c>
       <c r="B230" t="s">
@@ -20203,7 +20197,7 @@
       </c>
     </row>
     <row r="231" spans="1:6">
-      <c r="A231" s="4">
+      <c r="A231">
         <v>115</v>
       </c>
       <c r="B231" t="s">
@@ -20223,7 +20217,7 @@
       </c>
     </row>
     <row r="232" spans="1:6">
-      <c r="A232" s="4">
+      <c r="A232">
         <v>116</v>
       </c>
       <c r="B232" t="s">
@@ -20234,7 +20228,7 @@
       </c>
     </row>
     <row r="233" spans="1:6">
-      <c r="A233" s="4">
+      <c r="A233">
         <v>116</v>
       </c>
       <c r="B233" t="s">
@@ -20254,7 +20248,7 @@
       </c>
     </row>
     <row r="234" spans="1:6">
-      <c r="A234" s="4">
+      <c r="A234">
         <v>117</v>
       </c>
       <c r="B234" t="s">
@@ -20274,7 +20268,7 @@
       </c>
     </row>
     <row r="235" spans="1:6">
-      <c r="A235" s="4">
+      <c r="A235">
         <v>117</v>
       </c>
       <c r="B235" t="s">
@@ -20294,7 +20288,7 @@
       </c>
     </row>
     <row r="236" spans="1:6">
-      <c r="A236" s="4">
+      <c r="A236">
         <v>118</v>
       </c>
       <c r="B236" t="s">
@@ -20314,7 +20308,7 @@
       </c>
     </row>
     <row r="237" spans="1:6">
-      <c r="A237" s="4">
+      <c r="A237">
         <v>118</v>
       </c>
       <c r="B237" t="s">
@@ -20334,7 +20328,7 @@
       </c>
     </row>
     <row r="238" spans="1:6">
-      <c r="A238" s="4">
+      <c r="A238">
         <v>119</v>
       </c>
       <c r="B238" t="s">
@@ -20354,7 +20348,7 @@
       </c>
     </row>
     <row r="239" spans="1:6">
-      <c r="A239" s="4">
+      <c r="A239">
         <v>119</v>
       </c>
       <c r="B239" t="s">
@@ -20374,7 +20368,7 @@
       </c>
     </row>
     <row r="240" spans="1:6">
-      <c r="A240" s="4">
+      <c r="A240">
         <v>120</v>
       </c>
       <c r="B240" t="s">
@@ -20394,7 +20388,7 @@
       </c>
     </row>
     <row r="241" spans="1:6">
-      <c r="A241" s="4">
+      <c r="A241">
         <v>120</v>
       </c>
       <c r="B241" t="s">
@@ -20414,7 +20408,7 @@
       </c>
     </row>
     <row r="242" spans="1:6">
-      <c r="A242" s="4">
+      <c r="A242">
         <v>121</v>
       </c>
       <c r="B242" t="s">
@@ -20434,7 +20428,7 @@
       </c>
     </row>
     <row r="243" spans="1:6">
-      <c r="A243" s="4">
+      <c r="A243">
         <v>121</v>
       </c>
       <c r="B243" t="s">
@@ -20454,7 +20448,7 @@
       </c>
     </row>
     <row r="244" spans="1:6">
-      <c r="A244" s="4">
+      <c r="A244">
         <v>122</v>
       </c>
       <c r="B244" t="s">
@@ -20474,7 +20468,7 @@
       </c>
     </row>
     <row r="245" spans="1:6">
-      <c r="A245" s="4">
+      <c r="A245">
         <v>122</v>
       </c>
       <c r="B245" t="s">
@@ -20494,7 +20488,7 @@
       </c>
     </row>
     <row r="246" spans="1:6">
-      <c r="A246" s="4">
+      <c r="A246">
         <v>123</v>
       </c>
       <c r="B246" t="s">
@@ -20514,7 +20508,7 @@
       </c>
     </row>
     <row r="247" spans="1:6">
-      <c r="A247" s="4">
+      <c r="A247">
         <v>123</v>
       </c>
       <c r="B247" t="s">
@@ -20534,7 +20528,7 @@
       </c>
     </row>
     <row r="248" spans="1:6">
-      <c r="A248" s="4">
+      <c r="A248">
         <v>124</v>
       </c>
       <c r="B248" t="s">
@@ -20554,7 +20548,7 @@
       </c>
     </row>
     <row r="249" spans="1:6">
-      <c r="A249" s="4">
+      <c r="A249">
         <v>124</v>
       </c>
       <c r="B249" t="s">
@@ -20571,7 +20565,7 @@
       </c>
     </row>
     <row r="250" spans="1:6">
-      <c r="A250" s="4">
+      <c r="A250">
         <v>125</v>
       </c>
       <c r="B250" t="s">
@@ -20591,7 +20585,7 @@
       </c>
     </row>
     <row r="251" spans="1:6">
-      <c r="A251" s="4">
+      <c r="A251">
         <v>125</v>
       </c>
       <c r="B251" t="s">
@@ -20611,7 +20605,7 @@
       </c>
     </row>
     <row r="252" spans="1:6">
-      <c r="A252" s="4">
+      <c r="A252">
         <v>126</v>
       </c>
       <c r="B252" t="s">
@@ -20631,7 +20625,7 @@
       </c>
     </row>
     <row r="253" spans="1:6">
-      <c r="A253" s="4">
+      <c r="A253">
         <v>126</v>
       </c>
       <c r="B253" t="s">
@@ -20651,7 +20645,7 @@
       </c>
     </row>
     <row r="254" spans="1:6">
-      <c r="A254" s="4">
+      <c r="A254">
         <v>127</v>
       </c>
       <c r="B254" t="s">
@@ -20671,7 +20665,7 @@
       </c>
     </row>
     <row r="255" spans="1:6">
-      <c r="A255" s="4">
+      <c r="A255">
         <v>127</v>
       </c>
       <c r="B255" t="s">
@@ -20688,7 +20682,7 @@
       </c>
     </row>
     <row r="256" spans="1:6">
-      <c r="A256" s="4">
+      <c r="A256">
         <v>128</v>
       </c>
       <c r="B256" t="s">
@@ -20708,7 +20702,7 @@
       </c>
     </row>
     <row r="257" spans="1:6">
-      <c r="A257" s="4">
+      <c r="A257">
         <v>128</v>
       </c>
       <c r="B257" t="s">
@@ -20728,7 +20722,7 @@
       </c>
     </row>
     <row r="258" spans="1:6">
-      <c r="A258" s="4">
+      <c r="A258">
         <v>129</v>
       </c>
       <c r="B258" t="s">
@@ -20748,7 +20742,7 @@
       </c>
     </row>
     <row r="259" spans="1:6">
-      <c r="A259" s="4">
+      <c r="A259">
         <v>129</v>
       </c>
       <c r="B259" t="s">
@@ -20768,7 +20762,7 @@
       </c>
     </row>
     <row r="260" spans="1:6">
-      <c r="A260" s="4">
+      <c r="A260">
         <v>130</v>
       </c>
       <c r="B260" t="s">
@@ -20788,7 +20782,7 @@
       </c>
     </row>
     <row r="261" spans="1:6">
-      <c r="A261" s="4">
+      <c r="A261">
         <v>130</v>
       </c>
       <c r="B261" t="s">
@@ -20808,7 +20802,7 @@
       </c>
     </row>
     <row r="262" spans="1:6">
-      <c r="A262" s="4">
+      <c r="A262">
         <v>131</v>
       </c>
       <c r="B262" t="s">
@@ -20825,7 +20819,7 @@
       </c>
     </row>
     <row r="263" spans="1:6">
-      <c r="A263" s="4">
+      <c r="A263">
         <v>131</v>
       </c>
       <c r="B263" t="s">
@@ -20845,7 +20839,7 @@
       </c>
     </row>
     <row r="264" spans="1:6">
-      <c r="A264" s="4">
+      <c r="A264">
         <v>132</v>
       </c>
       <c r="B264" t="s">
@@ -20862,7 +20856,7 @@
       </c>
     </row>
     <row r="265" spans="1:6">
-      <c r="A265" s="4">
+      <c r="A265">
         <v>132</v>
       </c>
       <c r="B265" t="s">
@@ -20879,7 +20873,7 @@
       </c>
     </row>
     <row r="266" spans="1:6">
-      <c r="A266" s="4">
+      <c r="A266">
         <v>133</v>
       </c>
       <c r="B266" t="s">
@@ -20899,7 +20893,7 @@
       </c>
     </row>
     <row r="267" spans="1:6">
-      <c r="A267" s="4">
+      <c r="A267">
         <v>133</v>
       </c>
       <c r="B267" t="s">
@@ -20919,7 +20913,7 @@
       </c>
     </row>
     <row r="268" spans="1:6">
-      <c r="A268" s="4">
+      <c r="A268">
         <v>134</v>
       </c>
       <c r="B268" t="s">
@@ -20939,7 +20933,7 @@
       </c>
     </row>
     <row r="269" spans="1:6">
-      <c r="A269" s="4">
+      <c r="A269">
         <v>134</v>
       </c>
       <c r="B269" t="s">
@@ -20959,7 +20953,7 @@
       </c>
     </row>
     <row r="270" spans="1:6">
-      <c r="A270" s="4">
+      <c r="A270">
         <v>135</v>
       </c>
       <c r="B270" t="s">
@@ -20979,7 +20973,7 @@
       </c>
     </row>
     <row r="271" spans="1:6">
-      <c r="A271" s="4">
+      <c r="A271">
         <v>135</v>
       </c>
       <c r="B271" t="s">
@@ -20999,7 +20993,7 @@
       </c>
     </row>
     <row r="272" spans="1:6">
-      <c r="A272" s="4">
+      <c r="A272">
         <v>136</v>
       </c>
       <c r="B272" t="s">
@@ -21019,7 +21013,7 @@
       </c>
     </row>
     <row r="273" spans="1:6">
-      <c r="A273" s="4">
+      <c r="A273">
         <v>136</v>
       </c>
       <c r="B273" t="s">
@@ -21039,7 +21033,7 @@
       </c>
     </row>
     <row r="274" spans="1:6">
-      <c r="A274" s="4">
+      <c r="A274">
         <v>137</v>
       </c>
       <c r="B274" t="s">
@@ -21056,7 +21050,7 @@
       </c>
     </row>
     <row r="275" spans="1:6">
-      <c r="A275" s="4">
+      <c r="A275">
         <v>137</v>
       </c>
       <c r="B275" t="s">
@@ -21073,7 +21067,7 @@
       </c>
     </row>
     <row r="276" spans="1:6">
-      <c r="A276" s="4">
+      <c r="A276">
         <v>138</v>
       </c>
       <c r="B276" t="s">
@@ -21084,7 +21078,7 @@
       </c>
     </row>
     <row r="277" spans="1:6">
-      <c r="A277" s="4">
+      <c r="A277">
         <v>138</v>
       </c>
       <c r="B277" t="s">
@@ -21095,7 +21089,7 @@
       </c>
     </row>
     <row r="278" spans="1:6">
-      <c r="A278" s="4">
+      <c r="A278">
         <v>139</v>
       </c>
       <c r="B278" t="s">
@@ -21109,7 +21103,7 @@
       </c>
     </row>
     <row r="279" spans="1:6">
-      <c r="A279" s="4">
+      <c r="A279">
         <v>139</v>
       </c>
       <c r="B279" t="s">
@@ -21120,7 +21114,7 @@
       </c>
     </row>
     <row r="280" spans="1:6">
-      <c r="A280" s="4">
+      <c r="A280">
         <v>140</v>
       </c>
       <c r="B280" t="s">
@@ -21134,7 +21128,7 @@
       </c>
     </row>
     <row r="281" spans="1:6">
-      <c r="A281" s="4">
+      <c r="A281">
         <v>140</v>
       </c>
       <c r="B281" t="s">
@@ -23468,7 +23462,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -24180,7 +24174,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -24209,7 +24203,7 @@
       <c r="C2" t="s">
         <v>618</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="9" t="s">
         <v>608</v>
       </c>
     </row>
@@ -24223,7 +24217,7 @@
       <c r="C3" t="s">
         <v>619</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="9" t="s">
         <v>627</v>
       </c>
     </row>
@@ -24237,7 +24231,7 @@
       <c r="C4" t="s">
         <v>620</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="9" t="s">
         <v>628</v>
       </c>
     </row>
@@ -24251,7 +24245,7 @@
       <c r="C5" t="s">
         <v>621</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="9" t="s">
         <v>629</v>
       </c>
     </row>
@@ -24265,7 +24259,7 @@
       <c r="C6" t="s">
         <v>602</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="9" t="s">
         <v>600</v>
       </c>
     </row>
@@ -24279,7 +24273,7 @@
       <c r="C7" t="s">
         <v>606</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="9" t="s">
         <v>605</v>
       </c>
     </row>
@@ -24293,7 +24287,7 @@
       <c r="C8" t="s">
         <v>622</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="9" t="s">
         <v>631</v>
       </c>
     </row>
@@ -24307,7 +24301,7 @@
       <c r="C9" t="s">
         <v>623</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="9" t="s">
         <v>630</v>
       </c>
     </row>
@@ -24321,7 +24315,7 @@
       <c r="C10" t="s">
         <v>624</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="9" t="s">
         <v>632</v>
       </c>
     </row>
@@ -24335,7 +24329,7 @@
       <c r="C11" t="s">
         <v>625</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="9" t="s">
         <v>634</v>
       </c>
     </row>
@@ -24349,7 +24343,7 @@
       <c r="C12" t="s">
         <v>626</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="9" t="s">
         <v>633</v>
       </c>
     </row>
@@ -24380,10 +24374,10 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -24687,7 +24681,7 @@
       <c r="A39">
         <v>1</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39">
         <v>11</v>
       </c>
     </row>
@@ -24695,7 +24689,7 @@
       <c r="A40">
         <v>4</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40">
         <v>11</v>
       </c>
     </row>
@@ -24703,7 +24697,7 @@
       <c r="A41">
         <v>5</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41">
         <v>11</v>
       </c>
     </row>
@@ -24711,7 +24705,7 @@
       <c r="A42">
         <v>6</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42">
         <v>11</v>
       </c>
     </row>
@@ -24719,7 +24713,7 @@
       <c r="A43">
         <v>8</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43">
         <v>11</v>
       </c>
     </row>
@@ -24727,7 +24721,7 @@
       <c r="A44">
         <v>1</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44">
         <v>12</v>
       </c>
     </row>
@@ -24735,7 +24729,7 @@
       <c r="A45">
         <v>4</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45">
         <v>12</v>
       </c>
     </row>
@@ -24743,7 +24737,7 @@
       <c r="A46">
         <v>5</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46">
         <v>12</v>
       </c>
     </row>
@@ -24751,7 +24745,7 @@
       <c r="A47">
         <v>8</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47">
         <v>12</v>
       </c>
     </row>
@@ -27202,9 +27196,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="3" width="10.83203125" style="4"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
@@ -27213,7 +27204,7 @@
       <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" t="s">
         <v>375</v>
       </c>
       <c r="D1" t="s">
@@ -27230,10 +27221,10 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="4">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
@@ -27244,13 +27235,13 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="4">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>402</v>
       </c>
       <c r="E3" t="s">
@@ -27261,13 +27252,13 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="4">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>402</v>
       </c>
       <c r="D4">
@@ -27281,13 +27272,13 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="4">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>402</v>
       </c>
       <c r="D5">
@@ -27301,13 +27292,13 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="4">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
         <v>402</v>
       </c>
       <c r="D6">
@@ -27321,10 +27312,10 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="4">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
@@ -27335,13 +27326,13 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="4">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s">
         <v>402</v>
       </c>
       <c r="D8">
@@ -27355,13 +27346,13 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="4">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s">
         <v>402</v>
       </c>
       <c r="E9" t="s">
@@ -27372,13 +27363,13 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="4">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" t="s">
         <v>402</v>
       </c>
       <c r="D10">
@@ -27389,13 +27380,13 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="4">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" t="s">
         <v>402</v>
       </c>
       <c r="E11" t="s">
@@ -27406,13 +27397,13 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="4">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12">
         <v>11</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" t="s">
         <v>402</v>
       </c>
       <c r="D12">
@@ -27426,13 +27417,13 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="4">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13">
         <v>12</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" t="s">
         <v>402</v>
       </c>
       <c r="D13">
@@ -27446,13 +27437,13 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="4">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14">
         <v>13</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" t="s">
         <v>402</v>
       </c>
       <c r="D14">
@@ -27466,16 +27457,16 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="4">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15">
         <v>14</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" t="s">
         <v>402</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="8"/>
       <c r="E15" t="s">
         <v>51</v>
       </c>
@@ -27484,19 +27475,19 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16">
         <v>15</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" t="s">
         <v>402</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>1</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>126</v>
       </c>
       <c r="F16" t="s">
@@ -27504,13 +27495,13 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="4">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17">
         <v>15</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" t="s">
         <v>407</v>
       </c>
       <c r="E17" t="s">
@@ -27521,13 +27512,13 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="4">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18">
         <v>16</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" t="s">
         <v>402</v>
       </c>
       <c r="E18" t="s">
@@ -27538,13 +27529,13 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="4">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19">
         <v>17</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" t="s">
         <v>402</v>
       </c>
       <c r="E19" t="s">
@@ -27555,16 +27546,16 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="4">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20">
         <v>18</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" t="s">
         <v>402</v>
       </c>
-      <c r="D20" s="10"/>
+      <c r="D20" s="8"/>
       <c r="E20" t="s">
         <v>50</v>
       </c>
@@ -27573,13 +27564,13 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="4">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21">
         <v>19</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" t="s">
         <v>402</v>
       </c>
       <c r="E21" t="s">
@@ -27590,13 +27581,13 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="4">
+      <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
         <v>20</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" t="s">
         <v>402</v>
       </c>
       <c r="E22" t="s">
@@ -27607,13 +27598,13 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="4">
+      <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
         <v>21</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" t="s">
         <v>402</v>
       </c>
       <c r="E23" t="s">
@@ -27624,13 +27615,13 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="4">
+      <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
         <v>22</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" t="s">
         <v>402</v>
       </c>
       <c r="D24">
@@ -27644,13 +27635,13 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="4">
+      <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
         <v>22</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" t="s">
         <v>402</v>
       </c>
       <c r="D25">
@@ -27664,13 +27655,13 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="4">
+      <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
         <v>23</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" t="s">
         <v>402</v>
       </c>
       <c r="D26">
@@ -27684,13 +27675,13 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="4">
+      <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
         <v>24</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" t="s">
         <v>402</v>
       </c>
       <c r="E27" t="s">
@@ -27701,13 +27692,13 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="4">
+      <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
         <v>25</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" t="s">
         <v>402</v>
       </c>
       <c r="D28">
@@ -27721,13 +27712,13 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="4">
+      <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
         <v>26</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" t="s">
         <v>402</v>
       </c>
       <c r="D29">
@@ -27741,13 +27732,13 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="4">
+      <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
         <v>27</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" t="s">
         <v>402</v>
       </c>
       <c r="E30" t="s">
@@ -27758,13 +27749,13 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="4">
+      <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
         <v>28</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" t="s">
         <v>402</v>
       </c>
       <c r="D31">
@@ -27778,13 +27769,13 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="4">
+      <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
         <v>29</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" t="s">
         <v>402</v>
       </c>
       <c r="D32">
@@ -27798,13 +27789,13 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="4">
+      <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
         <v>30</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" t="s">
         <v>402</v>
       </c>
       <c r="E33" t="s">
@@ -27815,13 +27806,13 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="4">
+      <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
         <v>31</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" t="s">
         <v>402</v>
       </c>
       <c r="D34">
@@ -27835,13 +27826,13 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="4">
+      <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
         <v>32</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" t="s">
         <v>402</v>
       </c>
       <c r="E35" t="s">
@@ -27852,13 +27843,13 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="4">
+      <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
         <v>33</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" t="s">
         <v>402</v>
       </c>
       <c r="D36">
@@ -27872,13 +27863,13 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="4">
+      <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
         <v>34</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" t="s">
         <v>402</v>
       </c>
       <c r="D37">
@@ -27889,7 +27880,7 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="4">
+      <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
@@ -27903,13 +27894,13 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="4">
+      <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
         <v>36</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" t="s">
         <v>402</v>
       </c>
       <c r="E39" t="s">
@@ -27920,13 +27911,13 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="4">
+      <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
         <v>37</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" t="s">
         <v>402</v>
       </c>
       <c r="D40">
@@ -27940,13 +27931,13 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="4">
+      <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
         <v>37</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" t="s">
         <v>402</v>
       </c>
       <c r="D41">
@@ -27960,13 +27951,13 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="4">
+      <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
         <v>38</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" t="s">
         <v>402</v>
       </c>
       <c r="E42" t="s">
@@ -27977,13 +27968,13 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="4">
+      <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
         <v>39</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" t="s">
         <v>402</v>
       </c>
       <c r="E43" t="s">
@@ -27991,13 +27982,13 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="4">
+      <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
         <v>40</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" t="s">
         <v>402</v>
       </c>
       <c r="E44" t="s">
@@ -28005,13 +27996,13 @@
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="4">
+      <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
         <v>41</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" t="s">
         <v>402</v>
       </c>
       <c r="D45">
@@ -28025,13 +28016,13 @@
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="4">
+      <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
         <v>42</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" t="s">
         <v>402</v>
       </c>
       <c r="E46" t="s">
@@ -28042,13 +28033,13 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="4">
+      <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
         <v>42</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" t="s">
         <v>402</v>
       </c>
       <c r="E47" t="s">
@@ -28059,13 +28050,13 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="4">
+      <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
         <v>43</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" t="s">
         <v>402</v>
       </c>
       <c r="E48" t="s">
@@ -28076,13 +28067,13 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="4">
+      <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
         <v>44</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" t="s">
         <v>402</v>
       </c>
       <c r="D49">
@@ -28096,13 +28087,13 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="4">
+      <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
         <v>45</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" t="s">
         <v>402</v>
       </c>
       <c r="E50" t="s">
@@ -28110,13 +28101,13 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="4">
+      <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
         <v>46</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" t="s">
         <v>402</v>
       </c>
       <c r="E51" t="s">
@@ -28124,13 +28115,13 @@
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="4">
+      <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
         <v>47</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" t="s">
         <v>402</v>
       </c>
       <c r="E52" t="s">
@@ -28141,13 +28132,13 @@
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="4">
+      <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
         <v>48</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" t="s">
         <v>402</v>
       </c>
       <c r="E53" t="s">
@@ -28158,13 +28149,13 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="4">
+      <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
         <v>49</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" t="s">
         <v>402</v>
       </c>
       <c r="E54" t="s">
@@ -28172,13 +28163,13 @@
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="4">
+      <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
         <v>50</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" t="s">
         <v>402</v>
       </c>
       <c r="E55" t="s">
@@ -28189,13 +28180,13 @@
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="4">
+      <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
         <v>51</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" t="s">
         <v>402</v>
       </c>
       <c r="E56" t="s">
@@ -28203,13 +28194,13 @@
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="4">
+      <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
         <v>52</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" t="s">
         <v>402</v>
       </c>
       <c r="E57" t="s">
@@ -28220,13 +28211,13 @@
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="4">
+      <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
         <v>53</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" t="s">
         <v>402</v>
       </c>
       <c r="E58" t="s">
@@ -28237,13 +28228,13 @@
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="4">
+      <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
         <v>54</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" t="s">
         <v>402</v>
       </c>
       <c r="E59" t="s">
@@ -28254,13 +28245,13 @@
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="4">
+      <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
         <v>55</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" t="s">
         <v>402</v>
       </c>
       <c r="E60" t="s">
@@ -28271,13 +28262,13 @@
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="4">
+      <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
         <v>55</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" t="s">
         <v>402</v>
       </c>
       <c r="E61" t="s">
@@ -28288,13 +28279,13 @@
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="4">
+      <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
         <v>55</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" t="s">
         <v>402</v>
       </c>
       <c r="E62" t="s">
@@ -28305,13 +28296,13 @@
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="4">
+      <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
         <v>56</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" t="s">
         <v>402</v>
       </c>
       <c r="E63" t="s">
@@ -28319,13 +28310,13 @@
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="4">
+      <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
         <v>57</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" t="s">
         <v>402</v>
       </c>
       <c r="D64">
@@ -28339,13 +28330,13 @@
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="4">
+      <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
         <v>58</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" t="s">
         <v>402</v>
       </c>
       <c r="D65">
@@ -28359,7 +28350,7 @@
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="4">
+      <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
@@ -28373,13 +28364,13 @@
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="4">
+      <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
         <v>60</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" t="s">
         <v>402</v>
       </c>
       <c r="D67">
@@ -28393,13 +28384,13 @@
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="4">
+      <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
         <v>61</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" t="s">
         <v>402</v>
       </c>
       <c r="D68">
@@ -28413,13 +28404,13 @@
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="4">
+      <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
         <v>62</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" t="s">
         <v>402</v>
       </c>
       <c r="E69" t="s">
@@ -28430,13 +28421,13 @@
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="4">
+      <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
         <v>63</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" t="s">
         <v>402</v>
       </c>
       <c r="E70" t="s">
@@ -28447,13 +28438,13 @@
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="4">
+      <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
         <v>64</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" t="s">
         <v>402</v>
       </c>
       <c r="D71">
@@ -28467,13 +28458,13 @@
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="4">
+      <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
         <v>65</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" t="s">
         <v>402</v>
       </c>
       <c r="E72" t="s">
@@ -28484,7 +28475,7 @@
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="4">
+      <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
@@ -28498,13 +28489,13 @@
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="4">
+      <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
         <v>67</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" t="s">
         <v>402</v>
       </c>
       <c r="F74" t="s">
@@ -28515,13 +28506,13 @@
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="4">
+      <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
         <v>68</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" t="s">
         <v>402</v>
       </c>
       <c r="E75" t="s">
@@ -28532,7 +28523,7 @@
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="4">
+      <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
@@ -28543,7 +28534,7 @@
       </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="4">
+      <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
@@ -28557,7 +28548,7 @@
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="4">
+      <c r="A78">
         <v>77</v>
       </c>
       <c r="B78">
@@ -28571,7 +28562,7 @@
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="4">
+      <c r="A79">
         <v>78</v>
       </c>
       <c r="B79">
@@ -28585,7 +28576,7 @@
       </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="4">
+      <c r="A80">
         <v>79</v>
       </c>
       <c r="B80">
@@ -28599,13 +28590,13 @@
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="4">
+      <c r="A81">
         <v>80</v>
       </c>
       <c r="B81">
         <v>73</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" t="s">
         <v>402</v>
       </c>
       <c r="E81" t="s">
@@ -28616,13 +28607,13 @@
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="4">
+      <c r="A82">
         <v>81</v>
       </c>
       <c r="B82">
         <v>73</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" t="s">
         <v>402</v>
       </c>
       <c r="E82" t="s">
@@ -28633,13 +28624,13 @@
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="4">
+      <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
         <v>74</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" t="s">
         <v>402</v>
       </c>
       <c r="E83" t="s">
@@ -28650,13 +28641,13 @@
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="4">
+      <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
         <v>75</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" t="s">
         <v>402</v>
       </c>
       <c r="E84" t="s">
@@ -28667,13 +28658,13 @@
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="4">
+      <c r="A85">
         <v>84</v>
       </c>
       <c r="B85">
         <v>76</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" t="s">
         <v>402</v>
       </c>
       <c r="D85">
@@ -28687,13 +28678,13 @@
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="4">
+      <c r="A86">
         <v>85</v>
       </c>
       <c r="B86">
         <v>77</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" t="s">
         <v>402</v>
       </c>
       <c r="E86" t="s">
@@ -28704,13 +28695,13 @@
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="4">
+      <c r="A87">
         <v>86</v>
       </c>
       <c r="B87">
         <v>78</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" t="s">
         <v>402</v>
       </c>
       <c r="E87" t="s">
@@ -28721,13 +28712,13 @@
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="4">
+      <c r="A88">
         <v>87</v>
       </c>
       <c r="B88">
         <v>79</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" t="s">
         <v>402</v>
       </c>
       <c r="E88" t="s">
@@ -28738,13 +28729,13 @@
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="4">
+      <c r="A89">
         <v>88</v>
       </c>
       <c r="B89">
         <v>80</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" t="s">
         <v>402</v>
       </c>
       <c r="E89" t="s">
@@ -28755,13 +28746,13 @@
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="4">
+      <c r="A90">
         <v>89</v>
       </c>
       <c r="B90">
         <v>81</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C90" t="s">
         <v>402</v>
       </c>
       <c r="D90">
@@ -28775,13 +28766,13 @@
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="4">
+      <c r="A91">
         <v>90</v>
       </c>
       <c r="B91">
         <v>82</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" t="s">
         <v>402</v>
       </c>
       <c r="E91" t="s">
@@ -28792,13 +28783,13 @@
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="4">
+      <c r="A92">
         <v>91</v>
       </c>
       <c r="B92">
         <v>83</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" t="s">
         <v>402</v>
       </c>
       <c r="D92">
@@ -28812,13 +28803,13 @@
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="4">
+      <c r="A93">
         <v>92</v>
       </c>
       <c r="B93">
         <v>84</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" t="s">
         <v>402</v>
       </c>
       <c r="D93">
@@ -28832,13 +28823,13 @@
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="4">
+      <c r="A94">
         <v>93</v>
       </c>
       <c r="B94">
         <v>85</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C94" t="s">
         <v>402</v>
       </c>
       <c r="D94">
@@ -28852,13 +28843,13 @@
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="4">
+      <c r="A95">
         <v>94</v>
       </c>
       <c r="B95">
         <v>86</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" t="s">
         <v>402</v>
       </c>
       <c r="E95" t="s">
@@ -28869,13 +28860,13 @@
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="4">
+      <c r="A96">
         <v>95</v>
       </c>
       <c r="B96">
         <v>87</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" t="s">
         <v>402</v>
       </c>
       <c r="E96" t="s">
@@ -28886,13 +28877,13 @@
       </c>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="4">
+      <c r="A97">
         <v>96</v>
       </c>
       <c r="B97">
         <v>88</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" t="s">
         <v>402</v>
       </c>
       <c r="E97" t="s">
@@ -28903,13 +28894,13 @@
       </c>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="4">
+      <c r="A98">
         <v>97</v>
       </c>
       <c r="B98">
         <v>89</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" t="s">
         <v>402</v>
       </c>
       <c r="E98" t="s">
@@ -28920,13 +28911,13 @@
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="4">
+      <c r="A99">
         <v>98</v>
       </c>
       <c r="B99">
         <v>90</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" t="s">
         <v>402</v>
       </c>
       <c r="E99" t="s">
@@ -28937,13 +28928,13 @@
       </c>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="4">
+      <c r="A100">
         <v>99</v>
       </c>
       <c r="B100">
         <v>91</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" t="s">
         <v>402</v>
       </c>
       <c r="E100" t="s">
@@ -28954,7 +28945,7 @@
       </c>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="4">
+      <c r="A101">
         <v>100</v>
       </c>
       <c r="B101">
@@ -28968,13 +28959,13 @@
       </c>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="4">
+      <c r="A102">
         <v>101</v>
       </c>
       <c r="B102">
         <v>53</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C102" t="s">
         <v>402</v>
       </c>
       <c r="D102" s="1"/>
@@ -29030,7 +29021,7 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" t="s">
         <v>511</v>
       </c>
     </row>
@@ -29041,7 +29032,7 @@
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" t="s">
         <v>413</v>
       </c>
     </row>
@@ -29052,7 +29043,7 @@
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" t="s">
         <v>496</v>
       </c>
     </row>
@@ -29063,7 +29054,7 @@
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" t="s">
         <v>414</v>
       </c>
     </row>
@@ -29074,7 +29065,7 @@
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" t="s">
         <v>497</v>
       </c>
     </row>
@@ -29085,7 +29076,7 @@
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" t="s">
         <v>415</v>
       </c>
     </row>
@@ -29096,7 +29087,7 @@
       <c r="B9">
         <v>4</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" t="s">
         <v>498</v>
       </c>
     </row>
@@ -29118,7 +29109,7 @@
       <c r="B11">
         <v>5</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" t="s">
         <v>512</v>
       </c>
     </row>
@@ -29129,7 +29120,7 @@
       <c r="B12">
         <v>6</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" t="s">
         <v>417</v>
       </c>
     </row>
@@ -29140,7 +29131,7 @@
       <c r="B13">
         <v>6</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" t="s">
         <v>499</v>
       </c>
     </row>
@@ -29151,7 +29142,7 @@
       <c r="B14">
         <v>7</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" t="s">
         <v>418</v>
       </c>
     </row>
@@ -29162,7 +29153,7 @@
       <c r="B15">
         <v>7</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" t="s">
         <v>499</v>
       </c>
     </row>
@@ -29173,7 +29164,7 @@
       <c r="B16">
         <v>8</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" t="s">
         <v>419</v>
       </c>
     </row>
@@ -29184,7 +29175,7 @@
       <c r="B17">
         <v>8</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" t="s">
         <v>513</v>
       </c>
     </row>
@@ -29195,7 +29186,7 @@
       <c r="B18">
         <v>9</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="1" t="s">
         <v>514</v>
       </c>
     </row>
@@ -29206,7 +29197,7 @@
       <c r="B19">
         <v>9</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" t="s">
         <v>420</v>
       </c>
     </row>
@@ -29217,7 +29208,7 @@
       <c r="B20">
         <v>9</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" t="s">
         <v>515</v>
       </c>
     </row>
@@ -29228,7 +29219,7 @@
       <c r="B21">
         <v>10</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" t="s">
         <v>421</v>
       </c>
     </row>
@@ -29239,7 +29230,7 @@
       <c r="B22">
         <v>10</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" t="s">
         <v>516</v>
       </c>
     </row>
@@ -29250,7 +29241,7 @@
       <c r="B23">
         <v>11</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" t="s">
         <v>422</v>
       </c>
     </row>
@@ -29261,7 +29252,7 @@
       <c r="B24">
         <v>11</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" t="s">
         <v>497</v>
       </c>
     </row>
@@ -29272,7 +29263,7 @@
       <c r="B25">
         <v>12</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" t="s">
         <v>423</v>
       </c>
     </row>
@@ -29283,7 +29274,7 @@
       <c r="B26">
         <v>12</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" t="s">
         <v>500</v>
       </c>
     </row>
@@ -29294,7 +29285,7 @@
       <c r="B27">
         <v>13</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" t="s">
         <v>517</v>
       </c>
     </row>
@@ -29305,7 +29296,7 @@
       <c r="B28">
         <v>13</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" t="s">
         <v>424</v>
       </c>
     </row>
@@ -29316,7 +29307,7 @@
       <c r="B29">
         <v>13</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" t="s">
         <v>518</v>
       </c>
     </row>
@@ -29327,7 +29318,7 @@
       <c r="B30">
         <v>14</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" t="s">
         <v>425</v>
       </c>
     </row>
@@ -29338,7 +29329,7 @@
       <c r="B31">
         <v>14</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" t="s">
         <v>501</v>
       </c>
     </row>
@@ -29349,7 +29340,7 @@
       <c r="B32">
         <v>15</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" t="s">
         <v>519</v>
       </c>
     </row>
@@ -29360,7 +29351,7 @@
       <c r="B33">
         <v>15</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" t="s">
         <v>426</v>
       </c>
     </row>
@@ -29371,7 +29362,7 @@
       <c r="B34">
         <v>15</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" t="s">
         <v>520</v>
       </c>
     </row>
@@ -29382,7 +29373,7 @@
       <c r="B35">
         <v>16</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" t="s">
         <v>521</v>
       </c>
     </row>
@@ -29393,7 +29384,7 @@
       <c r="B36">
         <v>16</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" t="s">
         <v>701</v>
       </c>
     </row>
@@ -29404,7 +29395,7 @@
       <c r="B37">
         <v>16</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" t="s">
         <v>522</v>
       </c>
     </row>
@@ -29415,7 +29406,7 @@
       <c r="B38">
         <v>17</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" t="s">
         <v>427</v>
       </c>
     </row>
@@ -29426,7 +29417,7 @@
       <c r="B39">
         <v>17</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" t="s">
         <v>523</v>
       </c>
     </row>
@@ -29437,7 +29428,7 @@
       <c r="B40">
         <v>18</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" t="s">
         <v>428</v>
       </c>
     </row>
@@ -29448,7 +29439,7 @@
       <c r="B41">
         <v>18</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" t="s">
         <v>524</v>
       </c>
     </row>
@@ -29459,7 +29450,7 @@
       <c r="B42">
         <v>19</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" t="s">
         <v>429</v>
       </c>
     </row>
@@ -29470,7 +29461,7 @@
       <c r="B43">
         <v>19</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" t="s">
         <v>525</v>
       </c>
     </row>
@@ -29481,7 +29472,7 @@
       <c r="B44">
         <v>20</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" t="s">
         <v>430</v>
       </c>
     </row>
@@ -29492,7 +29483,7 @@
       <c r="B45">
         <v>20</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" t="s">
         <v>526</v>
       </c>
     </row>
@@ -29503,7 +29494,7 @@
       <c r="B46">
         <v>21</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" t="s">
         <v>527</v>
       </c>
     </row>
@@ -29514,7 +29505,7 @@
       <c r="B47">
         <v>21</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" t="s">
         <v>431</v>
       </c>
     </row>
@@ -29525,7 +29516,7 @@
       <c r="B48">
         <v>21</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" t="s">
         <v>528</v>
       </c>
     </row>
@@ -29536,7 +29527,7 @@
       <c r="B49">
         <v>22</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" t="s">
         <v>529</v>
       </c>
     </row>
@@ -29547,7 +29538,7 @@
       <c r="B50">
         <v>22</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" t="s">
         <v>432</v>
       </c>
     </row>
@@ -29558,7 +29549,7 @@
       <c r="B51">
         <v>22</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" t="s">
         <v>530</v>
       </c>
     </row>
@@ -29569,7 +29560,7 @@
       <c r="B52">
         <v>23</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" t="s">
         <v>531</v>
       </c>
     </row>
@@ -29580,7 +29571,7 @@
       <c r="B53">
         <v>23</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" t="s">
         <v>433</v>
       </c>
     </row>
@@ -29591,7 +29582,7 @@
       <c r="B54">
         <v>23</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" t="s">
         <v>532</v>
       </c>
     </row>
@@ -29602,7 +29593,7 @@
       <c r="B55">
         <v>24</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" t="s">
         <v>533</v>
       </c>
     </row>
@@ -29613,7 +29604,7 @@
       <c r="B56">
         <v>24</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" t="s">
         <v>534</v>
       </c>
     </row>
@@ -29624,7 +29615,7 @@
       <c r="B57">
         <v>24</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" t="s">
         <v>535</v>
       </c>
     </row>
@@ -29635,7 +29626,7 @@
       <c r="B58">
         <v>25</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" t="s">
         <v>434</v>
       </c>
     </row>
@@ -29646,7 +29637,7 @@
       <c r="B59">
         <v>25</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" t="s">
         <v>502</v>
       </c>
     </row>
@@ -29657,7 +29648,7 @@
       <c r="B60">
         <v>26</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" t="s">
         <v>683</v>
       </c>
     </row>
@@ -29668,7 +29659,7 @@
       <c r="B61">
         <v>26</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C61" t="s">
         <v>536</v>
       </c>
     </row>
@@ -29679,7 +29670,7 @@
       <c r="B62">
         <v>27</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" t="s">
         <v>435</v>
       </c>
     </row>
@@ -29690,7 +29681,7 @@
       <c r="B63">
         <v>27</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" t="s">
         <v>537</v>
       </c>
     </row>
@@ -29701,7 +29692,7 @@
       <c r="B64">
         <v>28</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C64" t="s">
         <v>538</v>
       </c>
     </row>
@@ -29712,7 +29703,7 @@
       <c r="B65">
         <v>28</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C65" t="s">
         <v>436</v>
       </c>
     </row>
@@ -29723,7 +29714,7 @@
       <c r="B66">
         <v>28</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C66" t="s">
         <v>703</v>
       </c>
     </row>
@@ -29734,7 +29725,7 @@
       <c r="B67">
         <v>29</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C67" t="s">
         <v>409</v>
       </c>
     </row>
@@ -29745,7 +29736,7 @@
       <c r="B68">
         <v>29</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C68" t="s">
         <v>539</v>
       </c>
     </row>
@@ -29756,7 +29747,7 @@
       <c r="B69">
         <v>30</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C69" t="s">
         <v>437</v>
       </c>
     </row>
@@ -29767,7 +29758,7 @@
       <c r="B70">
         <v>30</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C70" t="s">
         <v>540</v>
       </c>
     </row>
@@ -29778,7 +29769,7 @@
       <c r="B71">
         <v>31</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C71" t="s">
         <v>541</v>
       </c>
     </row>
@@ -29789,7 +29780,7 @@
       <c r="B72">
         <v>31</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C72" t="s">
         <v>438</v>
       </c>
     </row>
@@ -29800,7 +29791,7 @@
       <c r="B73">
         <v>31</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C73" t="s">
         <v>704</v>
       </c>
     </row>
@@ -29811,7 +29802,7 @@
       <c r="B74">
         <v>32</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C74" t="s">
         <v>439</v>
       </c>
     </row>
@@ -29822,7 +29813,7 @@
       <c r="B75">
         <v>32</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C75" t="s">
         <v>542</v>
       </c>
     </row>
@@ -29833,7 +29824,7 @@
       <c r="B76">
         <v>33</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C76" t="s">
         <v>440</v>
       </c>
     </row>
@@ -29844,7 +29835,7 @@
       <c r="B77">
         <v>33</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C77" t="s">
         <v>543</v>
       </c>
     </row>
@@ -29855,7 +29846,7 @@
       <c r="B78">
         <v>34</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C78" t="s">
         <v>441</v>
       </c>
     </row>
@@ -29866,7 +29857,7 @@
       <c r="B79">
         <v>34</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C79" t="s">
         <v>503</v>
       </c>
     </row>
@@ -29877,7 +29868,7 @@
       <c r="B80">
         <v>35</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C80" t="s">
         <v>544</v>
       </c>
     </row>
@@ -29888,7 +29879,7 @@
       <c r="B81">
         <v>35</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C81" t="s">
         <v>442</v>
       </c>
     </row>
@@ -29899,7 +29890,7 @@
       <c r="B82">
         <v>25</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C82" t="s">
         <v>702</v>
       </c>
     </row>
@@ -29910,7 +29901,7 @@
       <c r="B83">
         <v>36</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C83" t="s">
         <v>443</v>
       </c>
     </row>
@@ -29921,7 +29912,7 @@
       <c r="B84">
         <v>36</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C84" t="s">
         <v>545</v>
       </c>
     </row>
@@ -29932,7 +29923,7 @@
       <c r="B85">
         <v>37</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C85" t="s">
         <v>444</v>
       </c>
     </row>
@@ -29943,7 +29934,7 @@
       <c r="B86">
         <v>37</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C86" t="s">
         <v>546</v>
       </c>
     </row>
@@ -29954,7 +29945,7 @@
       <c r="B87">
         <v>38</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C87" t="s">
         <v>547</v>
       </c>
     </row>
@@ -29965,7 +29956,7 @@
       <c r="B88">
         <v>38</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C88" t="s">
         <v>705</v>
       </c>
     </row>
@@ -29976,7 +29967,7 @@
       <c r="B89">
         <v>38</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C89" t="s">
         <v>550</v>
       </c>
     </row>
@@ -29987,7 +29978,7 @@
       <c r="B90">
         <v>39</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="C90" t="s">
         <v>445</v>
       </c>
     </row>
@@ -29998,7 +29989,7 @@
       <c r="B91">
         <v>39</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C91" t="s">
         <v>548</v>
       </c>
     </row>
@@ -30009,7 +30000,7 @@
       <c r="B92">
         <v>40</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="C92" t="s">
         <v>446</v>
       </c>
     </row>
@@ -30020,7 +30011,7 @@
       <c r="B93">
         <v>40</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="C93" t="s">
         <v>549</v>
       </c>
     </row>
@@ -30031,7 +30022,7 @@
       <c r="B94">
         <v>41</v>
       </c>
-      <c r="C94" s="11" t="s">
+      <c r="C94" t="s">
         <v>447</v>
       </c>
     </row>
@@ -30042,7 +30033,7 @@
       <c r="B95">
         <v>41</v>
       </c>
-      <c r="C95" s="11" t="s">
+      <c r="C95" t="s">
         <v>550</v>
       </c>
     </row>
@@ -30053,7 +30044,7 @@
       <c r="B96">
         <v>42</v>
       </c>
-      <c r="C96" s="11" t="s">
+      <c r="C96" t="s">
         <v>551</v>
       </c>
     </row>
@@ -30064,7 +30055,7 @@
       <c r="B97">
         <v>42</v>
       </c>
-      <c r="C97" s="11" t="s">
+      <c r="C97" t="s">
         <v>448</v>
       </c>
     </row>
@@ -30075,7 +30066,7 @@
       <c r="B98">
         <v>42</v>
       </c>
-      <c r="C98" s="11" t="s">
+      <c r="C98" t="s">
         <v>706</v>
       </c>
     </row>
@@ -30086,7 +30077,7 @@
       <c r="B99">
         <v>43</v>
       </c>
-      <c r="C99" s="11" t="s">
+      <c r="C99" t="s">
         <v>449</v>
       </c>
     </row>
@@ -30097,7 +30088,7 @@
       <c r="B100">
         <v>43</v>
       </c>
-      <c r="C100" s="11" t="s">
+      <c r="C100" t="s">
         <v>552</v>
       </c>
     </row>
@@ -30108,7 +30099,7 @@
       <c r="B101">
         <v>44</v>
       </c>
-      <c r="C101" s="11" t="s">
+      <c r="C101" t="s">
         <v>410</v>
       </c>
     </row>
@@ -30119,7 +30110,7 @@
       <c r="B102">
         <v>44</v>
       </c>
-      <c r="C102" s="11" t="s">
+      <c r="C102" t="s">
         <v>553</v>
       </c>
     </row>
@@ -30130,7 +30121,7 @@
       <c r="B103">
         <v>45</v>
       </c>
-      <c r="C103" s="11" t="s">
+      <c r="C103" t="s">
         <v>554</v>
       </c>
     </row>
@@ -30141,7 +30132,7 @@
       <c r="B104">
         <v>45</v>
       </c>
-      <c r="C104" s="11" t="s">
+      <c r="C104" t="s">
         <v>450</v>
       </c>
     </row>
@@ -30152,7 +30143,7 @@
       <c r="B105">
         <v>45</v>
       </c>
-      <c r="C105" s="11" t="s">
+      <c r="C105" t="s">
         <v>555</v>
       </c>
     </row>
@@ -30163,7 +30154,7 @@
       <c r="B106">
         <v>46</v>
       </c>
-      <c r="C106" s="11" t="s">
+      <c r="C106" t="s">
         <v>451</v>
       </c>
     </row>
@@ -30174,7 +30165,7 @@
       <c r="B107">
         <v>46</v>
       </c>
-      <c r="C107" s="11" t="s">
+      <c r="C107" t="s">
         <v>555</v>
       </c>
     </row>
@@ -30185,7 +30176,7 @@
       <c r="B108">
         <v>47</v>
       </c>
-      <c r="C108" s="12" t="s">
+      <c r="C108" s="1" t="s">
         <v>556</v>
       </c>
     </row>
